--- a/StructureDefinition-onconova-tnm-grade-category.xlsx
+++ b/StructureDefinition-onconova-tnm-grade-category.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T14:38:38+00:00</t>
+    <t>2025-10-15T14:58:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-tnm-grade-category.xlsx
+++ b/StructureDefinition-onconova-tnm-grade-category.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T14:58:32+00:00</t>
+    <t>2025-10-15T15:04:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-tnm-grade-category.xlsx
+++ b/StructureDefinition-onconova-tnm-grade-category.xlsx
@@ -33,7 +33,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-15T15:04:18+00:00</t>
+    <t>2025-10-17T13:44:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -277,7 +277,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}obs-6:dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}obs-7:If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}obs-6:dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}obs-7:If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}o-stg-req-1:The subject element is required and must be provided. {subject.exists() and subject.resolve().is(Patient)}o-stg-req-2:The effectiveDateTime element is required and must be provided. {effectiveDateTime.exists() and effectiveDateTime.hasValue()}o-stg-req-3:The valueCodeableConcept element is required and must be provided. {valueCodeableConcept.exists() and valueCodeableConcept.coding.exists()}</t>
   </si>
   <si>
     <t>Event</t>
@@ -676,7 +676,7 @@
     <t>Knowing what kind of observation is being made is essential to understanding the observation.</t>
   </si>
   <si>
-    <t>http://onconova.github.io/fhir/ValueSet/onconova-vs-tnm-grade-category-methods|0.1.0</t>
+    <t>http://onconova.github.io/fhir/ValueSet/onconova-vs-tnm-grade-category-methods|0.2.0</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -700,7 +700,7 @@
     <t>Observation.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://onconova.github.io/fhir/StructureDefinition/onconova-cancer-patient|0.1.0)
+    <t xml:space="preserve">Reference(http://onconova.github.io/fhir/StructureDefinition/onconova-cancer-patient|0.2.0)
 </t>
   </si>
   <si>
@@ -789,8 +789,8 @@
 </t>
   </si>
   <si>
-    <t>dateTime
-PeriodTiminginstant</t>
+    <t xml:space="preserve">dateTime
+</t>
   </si>
   <si>
     <t>(USCDI) Clinically relevant time/time-period for observation</t>
@@ -885,7 +885,7 @@
     <t>An observation exists to have a value, though it might not if it is in error, or if it represents a group of observations.</t>
   </si>
   <si>
-    <t>http://onconova.github.io/fhir/ValueSet/onconova-vs-tnm-grade-categories|0.1.0</t>
+    <t>http://onconova.github.io/fhir/ValueSet/onconova-vs-tnm-grade-categories|0.2.0</t>
   </si>
   <si>
     <t xml:space="preserve">obs-7

--- a/StructureDefinition-onconova-tnm-grade-category.xlsx
+++ b/StructureDefinition-onconova-tnm-grade-category.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-17T13:44:17+00:00</t>
+    <t>2025-11-07T05:59:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-tnm-grade-category.xlsx
+++ b/StructureDefinition-onconova-tnm-grade-category.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-07T05:59:36+00:00</t>
+    <t>2025-11-11T12:30:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-tnm-grade-category.xlsx
+++ b/StructureDefinition-onconova-tnm-grade-category.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-11T12:30:26+00:00</t>
+    <t>2025-11-11T12:47:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-tnm-grade-category.xlsx
+++ b/StructureDefinition-onconova-tnm-grade-category.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-11T12:47:38+00:00</t>
+    <t>2025-11-18T09:06:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-tnm-grade-category.xlsx
+++ b/StructureDefinition-onconova-tnm-grade-category.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-18T09:06:42+00:00</t>
+    <t>2025-11-19T13:56:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-tnm-grade-category.xlsx
+++ b/StructureDefinition-onconova-tnm-grade-category.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-19T13:56:54+00:00</t>
+    <t>2025-11-19T14:47:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-tnm-grade-category.xlsx
+++ b/StructureDefinition-onconova-tnm-grade-category.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-19T14:47:01+00:00</t>
+    <t>2025-11-21T06:40:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-tnm-grade-category.xlsx
+++ b/StructureDefinition-onconova-tnm-grade-category.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-21T06:40:28+00:00</t>
+    <t>2025-11-21T12:46:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-tnm-grade-category.xlsx
+++ b/StructureDefinition-onconova-tnm-grade-category.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-21T12:46:13+00:00</t>
+    <t>2025-11-21T14:06:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-tnm-grade-category.xlsx
+++ b/StructureDefinition-onconova-tnm-grade-category.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-21T14:06:51+00:00</t>
+    <t>2025-11-22T09:54:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-tnm-grade-category.xlsx
+++ b/StructureDefinition-onconova-tnm-grade-category.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2032" uniqueCount="449">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2032" uniqueCount="434">
   <si>
     <t>Property</t>
   </si>
@@ -45,7 +45,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>TNM Grade Category</t>
+    <t>TNM Grade Category Profile</t>
   </si>
   <si>
     <t>Status</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-22T09:54:31+00:00</t>
+    <t>2025-11-22T09:58:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -84,8 +84,10 @@
     <t>Description</t>
   </si>
   <si>
-    <t>A profile representing the TNM grade category for a cancer patient. 
-This profile extends the base mCODE [TNMCategory profile](http://hl7.org/fhir/us/mcode/StructureDefinition/mcode-tnm-category) to specify the new TNM category.</t>
+    <t xml:space="preserve">A profile representing the TNM grade category for a cancer patient. 
+This profile extends the base mCODE [TNMCategory profile](http://hl7.org/fhir/us/mcode/StructureDefinition/mcode-tnm-category) to specify the new TNM category.
+**Conformance:**
+Observation resources representing a TNM staging grade category parameter in the scope of Onconova SHALL conform to this profile. Any resource intended to conform to this profile SHOULD populate `meta.profile` accordingly. </t>
   </si>
   <si>
     <t>Purpose</t>
@@ -115,7 +117,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/mcode/StructureDefinition/mcode-tnm-category|4.0.0</t>
+    <t>http://hl7.org/fhir/us/mcode/StructureDefinition/mcode-tnm-category</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -378,7 +380,7 @@
     <t>A human language.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/languages|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/languages</t>
   </si>
   <si>
     <t>Resource.language</t>
@@ -514,7 +516,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(CarePlan|4.0.1|DeviceRequest|4.0.1|ImmunizationRecommendation|4.0.1|MedicationRequest|4.0.1|NutritionOrder|4.0.1|ServiceRequest|4.0.1)
+    <t xml:space="preserve">Reference(CarePlan|DeviceRequest|ImmunizationRecommendation|MedicationRequest|NutritionOrder|ServiceRequest)
 </t>
   </si>
   <si>
@@ -543,7 +545,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(MedicationAdministration|4.0.1|MedicationDispense|4.0.1|MedicationStatement|4.0.1|Procedure|4.0.1|Immunization|4.0.1|ImagingStudy|4.0.1)
+    <t xml:space="preserve">Reference(MedicationAdministration|MedicationDispense|MedicationStatement|Procedure|Immunization|ImagingStudy)
 </t>
   </si>
   <si>
@@ -568,19 +570,13 @@
     <t>Observation.status</t>
   </si>
   <si>
-    <t>(USCDI) registered | preliminary | final | amended +</t>
-  </si>
-  <si>
-    <t>The status of the result value.</t>
+    <t>Not used in this profile</t>
   </si>
   <si>
     <t>This element is labeled as a modifier because the status contains codes that mark the resource as not currently valid.</t>
   </si>
   <si>
     <t>Need to track the status of individual results. Some results are finalized before the whole report is finalized.</t>
-  </si>
-  <si>
-    <t>final</t>
   </si>
   <si>
     <t>required</t>
@@ -629,7 +625,7 @@
     <t>Codes for high level observation categories.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-category|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-category</t>
   </si>
   <si>
     <t xml:space="preserve">pattern:$this}
@@ -654,7 +650,7 @@
     <t>Note that other codes are permitted, see [Required Bindings When Slicing by Value Sets](http://hl7.org/fhir/us/core/general-requirements.html#required-bindings-when-slicing-by-valuesets)</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/core/ValueSet/us-core-simple-observation-category|6.1.0</t>
+    <t>http://hl7.org/fhir/us/core/ValueSet/us-core-simple-observation-category</t>
   </si>
   <si>
     <t>Observation.code</t>
@@ -676,7 +672,7 @@
     <t>Knowing what kind of observation is being made is essential to understanding the observation.</t>
   </si>
   <si>
-    <t>http://onconova.github.io/fhir/ValueSet/onconova-vs-tnm-grade-category-methods|0.2.0</t>
+    <t>http://onconova.github.io/fhir/ValueSet/onconova-vs-tnm-grade-category-methods</t>
   </si>
   <si>
     <t>Event.code</t>
@@ -700,7 +696,7 @@
     <t>Observation.subject</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://onconova.github.io/fhir/StructureDefinition/onconova-cancer-patient|0.2.0)
+    <t xml:space="preserve">Reference(http://onconova.github.io/fhir/StructureDefinition/onconova-cancer-patient)
 </t>
   </si>
   <si>
@@ -731,7 +727,7 @@
     <t>Observation.focus</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/mcode/StructureDefinition/mcode-primary-cancer-condition|4.0.0)
+    <t xml:space="preserve">Reference(http://onconova.github.io/fhir/StructureDefinition/onconova-primary-cancer-condition)
 </t>
   </si>
   <si>
@@ -754,14 +750,8 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Encounter|4.0.1)
+    <t xml:space="preserve">Reference(Encounter)
 </t>
-  </si>
-  <si>
-    <t>Healthcare event during which this observation is made</t>
-  </si>
-  <si>
-    <t>The healthcare event  (e.g. a patient and healthcare provider interaction) during which this observation is made.</t>
   </si>
   <si>
     <t>This will typically be the encounter the event occurred within, but some events may be initiated prior to or after the official completion of an encounter but still be tied to the context of the encounter (e.g. pre-admission laboratory tests).</t>
@@ -824,12 +814,6 @@
 </t>
   </si>
   <si>
-    <t>Date/Time this version was made available</t>
-  </si>
-  <si>
-    <t>The date and time this version of the observation was made available to providers, typically after the results have been reviewed and verified.</t>
-  </si>
-  <si>
     <t>For Observations that don’t require review and verification, it may be the same as the [`lastUpdated` ](http://hl7.org/fhir/R4/resource-definitions.html#Meta.lastUpdated) time of the resource itself.  For Observations that do require review and verification for certain updates, it might not be the same as the `lastUpdated` time of the resource itself due to a non-clinically significant update that doesn’t require the new version to be reviewed and verified again.</t>
   </si>
   <si>
@@ -845,16 +829,10 @@
     <t>Observation.performer</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/core/StructureDefinition/us-core-practitioner|6.1.0|http://hl7.org/fhir/us/core/StructureDefinition/us-core-organization|6.1.0|http://hl7.org/fhir/us/core/StructureDefinition/us-core-patient|6.1.0|PractitionerRole|4.0.1|http://hl7.org/fhir/us/core/StructureDefinition/us-core-careteam|6.1.0|http://hl7.org/fhir/us/core/StructureDefinition/us-core-relatedperson|6.1.0)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/core/StructureDefinition/us-core-practitioner|http://hl7.org/fhir/us/core/StructureDefinition/us-core-organization|http://hl7.org/fhir/us/core/StructureDefinition/us-core-patient|PractitionerRole|http://hl7.org/fhir/us/core/StructureDefinition/us-core-careteam|http://hl7.org/fhir/us/core/StructureDefinition/us-core-relatedperson)
 </t>
   </si>
   <si>
-    <t>(USCDI) Who is responsible for the observation</t>
-  </si>
-  <si>
-    <t>Who was responsible for asserting the observed value as "true".</t>
-  </si>
-  <si>
     <t>May give a degree of confidence in the observation and also indicates where follow-up questions should be directed.</t>
   </si>
   <si>
@@ -885,7 +863,7 @@
     <t>An observation exists to have a value, though it might not if it is in error, or if it represents a group of observations.</t>
   </si>
   <si>
-    <t>http://onconova.github.io/fhir/ValueSet/onconova-vs-tnm-grade-categories|0.2.0</t>
+    <t>http://onconova.github.io/fhir/ValueSet/onconova-vs-tnm-grade-categories</t>
   </si>
   <si>
     <t xml:space="preserve">obs-7
@@ -926,7 +904,7 @@
     <t>Codes specifying why the result (`Observation.value[x]`) is missing.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/data-absent-reason|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/data-absent-reason</t>
   </si>
   <si>
     <t xml:space="preserve">obs-6
@@ -943,12 +921,6 @@
 </t>
   </si>
   <si>
-    <t>High, low, normal, etc.</t>
-  </si>
-  <si>
-    <t>A categorical assessment of an observation value.  For example, high, low, normal.</t>
-  </si>
-  <si>
     <t>Historically used for laboratory results (known as 'abnormal flag' ),  its use extends to other use cases where coded interpretations  are relevant.  Often reported as one or more simple compact codes this element is often placed adjacent to the result value in reports and flow sheets to signal the meaning/normalcy status of the result.</t>
   </si>
   <si>
@@ -958,7 +930,7 @@
     <t>Codes identifying interpretations of observations.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-interpretation|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-interpretation</t>
   </si>
   <si>
     <t>&lt; 260245000 |Findings values|</t>
@@ -1001,12 +973,6 @@
     <t>Observation.bodySite</t>
   </si>
   <si>
-    <t>Observed body part</t>
-  </si>
-  <si>
-    <t>Indicates the site on the subject's body where the observation was made (i.e. the target site).</t>
-  </si>
-  <si>
     <t>Only used if not implicit in code found in Observation.code.  In many systems, this may be represented as a related observation instead of an inline component.   
 If the use case requires BodySite to be handled as a separate resource (e.g. to identify and track separately) then use the standard extension[ bodySite](http://hl7.org/fhir/R4/extension-bodysite.html).</t>
   </si>
@@ -1017,7 +983,7 @@
     <t>Codes describing anatomical locations. May include laterality.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/body-site|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/body-site</t>
   </si>
   <si>
     <t>&lt; 123037004 |Body structure|</t>
@@ -1047,7 +1013,7 @@
     <t>In some cases, method can impact results and is thus used for determining whether results can be compared or determining significance of results.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/us/mcode/ValueSet/mcode-tnm-staging-method-vs|4.0.0</t>
+    <t>http://hl7.org/fhir/us/mcode/ValueSet/mcode-tnm-staging-method-vs</t>
   </si>
   <si>
     <t>OBX-17</t>
@@ -1059,16 +1025,10 @@
     <t>Observation.specimen</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Specimen|4.0.1)
+    <t xml:space="preserve">Reference(Specimen)
 </t>
   </si>
   <si>
-    <t>Specimen used for this observation</t>
-  </si>
-  <si>
-    <t>The specimen that was used when this observation was made.</t>
-  </si>
-  <si>
     <t>Should only be used if not implicit in code found in `Observation.code`.  Observations are not made on specimens themselves; they are made on a subject, but in many cases by the means of a specimen. Note that although specimens are often involved, they are not always tracked and reported explicitly. Also note that observation resources may be used in contexts that track the specimen explicitly (e.g. Diagnostic Report).</t>
   </si>
   <si>
@@ -1087,11 +1047,8 @@
     <t>Observation.device</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Device|4.0.1|DeviceMetric|4.0.1)
+    <t xml:space="preserve">Reference(Device|DeviceMetric)
 </t>
-  </si>
-  <si>
-    <t>Not used in this profile</t>
   </si>
   <si>
     <t>Note that this is not meant to represent a device involved in the transmission of the result, e.g., a gateway.  Such devices may be documented using the Provenance resource where relevant.</t>
@@ -1180,7 +1137,7 @@
     <t>Observation.referenceRange.low</t>
   </si>
   <si>
-    <t xml:space="preserve">Quantity {SimpleQuantity|4.0.1}
+    <t xml:space="preserve">Quantity {SimpleQuantity}
 </t>
   </si>
   <si>
@@ -1230,7 +1187,7 @@
     <t>Code for the meaning of a reference range.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/referencerange-meaning|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/referencerange-meaning</t>
   </si>
   <si>
     <t>&lt; 260245000 |Findings values| OR  @@ -1263,7 +1220,7 @@
     <t>Codes identifying the population the reference range applies to.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/referencerange-appliesto|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/referencerange-appliesto</t>
   </si>
   <si>
     <t>Observation.referenceRange.age</t>
@@ -1300,7 +1257,7 @@
     <t>Observation.hasMember</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Observation|4.0.1|QuestionnaireResponse|4.0.1|MolecularSequence|4.0.1)
+    <t xml:space="preserve">Reference(Observation|QuestionnaireResponse|MolecularSequence)
 </t>
   </si>
   <si>
@@ -1316,7 +1273,7 @@
     <t>Observation.derivedFrom</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Observation|4.0.1|http://hl7.org/fhir/us/core/StructureDefinition/us-core-documentreference|6.1.0|http://hl7.org/fhir/us/core/StructureDefinition/us-core-questionnaireresponse|6.1.0|ImagingStudy|4.0.1|Media|4.0.1|MolecularSequence|4.0.1)
+    <t xml:space="preserve">Reference(Observation|http://hl7.org/fhir/us/core/StructureDefinition/us-core-documentreference|http://hl7.org/fhir/us/core/StructureDefinition/us-core-questionnaireresponse|ImagingStudy|Media|MolecularSequence)
 </t>
   </si>
   <si>
@@ -1335,12 +1292,6 @@
     <t>Observation.component</t>
   </si>
   <si>
-    <t>Component results</t>
-  </si>
-  <si>
-    <t>Some observations have multiple component observations.  These component observations are expressed as separate code value pairs that share the same attributes.  Examples include systolic and diastolic component observations for blood pressure measurement and multiple component observations for genetics observations.</t>
-  </si>
-  <si>
     <t>For a discussion on the ways Observations can be assembled in groups together see [Notes](http://hl7.org/fhir/R4/observation.html#notes) below.</t>
   </si>
   <si>
@@ -1377,7 +1328,7 @@
     <t>Codes identifying names of simple observations.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/observation-codes|4.0.1</t>
+    <t>http://hl7.org/fhir/ValueSet/observation-codes</t>
   </si>
   <si>
     <t>&lt; 363787002 |Observable entity| OR @@ -1414,6 +1365,12 @@
   </si>
   <si>
     <t>Observation.component.interpretation</t>
+  </si>
+  <si>
+    <t>High, low, normal, etc.</t>
+  </si>
+  <si>
+    <t>A categorical assessment of an observation value.  For example, high, low, normal.</t>
   </si>
   <si>
     <t>Observation.component.referenceRange</t>
@@ -1776,7 +1733,7 @@
     <col min="23" max="23" width="16.3203125" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="16.16796875" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="150.18359375" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="70.3203125" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="65.79296875" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="5.44140625" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="19.4765625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="17.65625" customWidth="true" bestFit="true"/>
@@ -3396,13 +3353,13 @@
         <v>176</v>
       </c>
       <c r="M14" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="N14" t="s" s="2">
         <v>177</v>
       </c>
-      <c r="N14" t="s" s="2">
+      <c r="O14" t="s" s="2">
         <v>178</v>
-      </c>
-      <c r="O14" t="s" s="2">
-        <v>179</v>
       </c>
       <c r="P14" t="s" s="2">
         <v>20</v>
@@ -3412,28 +3369,28 @@
         <v>20</v>
       </c>
       <c r="S14" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="T14" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="U14" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="V14" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="W14" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="X14" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="Y14" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="T14" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="U14" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="V14" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="W14" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="X14" t="s" s="2">
+      <c r="Z14" t="s" s="2">
         <v>181</v>
-      </c>
-      <c r="Y14" t="s" s="2">
-        <v>182</v>
-      </c>
-      <c r="Z14" t="s" s="2">
-        <v>183</v>
       </c>
       <c r="AA14" t="s" s="2">
         <v>20</v>
@@ -3466,19 +3423,19 @@
         <v>103</v>
       </c>
       <c r="AK14" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="AL14" t="s" s="2">
+        <v>183</v>
+      </c>
+      <c r="AM14" t="s" s="2">
         <v>184</v>
       </c>
-      <c r="AL14" t="s" s="2">
+      <c r="AN14" t="s" s="2">
         <v>185</v>
       </c>
-      <c r="AM14" t="s" s="2">
+      <c r="AO14" t="s" s="2">
         <v>186</v>
-      </c>
-      <c r="AN14" t="s" s="2">
-        <v>187</v>
-      </c>
-      <c r="AO14" t="s" s="2">
-        <v>188</v>
       </c>
       <c r="AP14" t="s" s="2">
         <v>20</v>
@@ -3486,10 +3443,10 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3512,19 +3469,19 @@
         <v>20</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="L15" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="M15" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="N15" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="M15" t="s" s="2">
+      <c r="O15" t="s" s="2">
         <v>192</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="O15" t="s" s="2">
-        <v>194</v>
       </c>
       <c r="P15" t="s" s="2">
         <v>20</v>
@@ -3552,26 +3509,26 @@
         <v>115</v>
       </c>
       <c r="Y15" t="s" s="2">
+        <v>193</v>
+      </c>
+      <c r="Z15" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="AA15" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AB15" t="s" s="2">
         <v>195</v>
-      </c>
-      <c r="Z15" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="AA15" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AB15" t="s" s="2">
-        <v>197</v>
       </c>
       <c r="AC15" s="2"/>
       <c r="AD15" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>80</v>
@@ -3595,10 +3552,10 @@
         <v>20</v>
       </c>
       <c r="AN15" t="s" s="2">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="AO15" t="s" s="2">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="AP15" t="s" s="2">
         <v>20</v>
@@ -3606,13 +3563,13 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C16" t="s" s="2">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D16" t="s" s="2">
         <v>20</v>
@@ -3634,19 +3591,19 @@
         <v>20</v>
       </c>
       <c r="K16" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="L16" t="s" s="2">
+        <v>189</v>
+      </c>
+      <c r="M16" t="s" s="2">
         <v>190</v>
       </c>
-      <c r="L16" t="s" s="2">
+      <c r="N16" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="M16" t="s" s="2">
+      <c r="O16" t="s" s="2">
         <v>192</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>193</v>
-      </c>
-      <c r="O16" t="s" s="2">
-        <v>194</v>
       </c>
       <c r="P16" t="s" s="2">
         <v>20</v>
@@ -3671,13 +3628,13 @@
         <v>20</v>
       </c>
       <c r="X16" t="s" s="2">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="Y16" t="s" s="2">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="Z16" t="s" s="2">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="AA16" t="s" s="2">
         <v>20</v>
@@ -3695,7 +3652,7 @@
         <v>20</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>80</v>
@@ -3719,10 +3676,10 @@
         <v>20</v>
       </c>
       <c r="AN16" t="s" s="2">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="AO16" t="s" s="2">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="AP16" t="s" s="2">
         <v>20</v>
@@ -3730,14 +3687,14 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
@@ -3756,19 +3713,19 @@
         <v>92</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="L17" t="s" s="2">
+        <v>205</v>
+      </c>
+      <c r="M17" t="s" s="2">
+        <v>206</v>
+      </c>
+      <c r="N17" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="M17" t="s" s="2">
+      <c r="O17" t="s" s="2">
         <v>208</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>209</v>
-      </c>
-      <c r="O17" t="s" s="2">
-        <v>210</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>20</v>
@@ -3793,11 +3750,11 @@
         <v>20</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="Y17" s="2"/>
       <c r="Z17" t="s" s="2">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>20</v>
@@ -3815,7 +3772,7 @@
         <v>20</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>91</v>
@@ -3830,30 +3787,30 @@
         <v>103</v>
       </c>
       <c r="AK17" t="s" s="2">
+        <v>210</v>
+      </c>
+      <c r="AL17" t="s" s="2">
+        <v>211</v>
+      </c>
+      <c r="AM17" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="AL17" t="s" s="2">
+      <c r="AN17" t="s" s="2">
         <v>213</v>
       </c>
-      <c r="AM17" t="s" s="2">
+      <c r="AO17" t="s" s="2">
         <v>214</v>
       </c>
-      <c r="AN17" t="s" s="2">
+      <c r="AP17" t="s" s="2">
         <v>215</v>
-      </c>
-      <c r="AO17" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="AP17" t="s" s="2">
-        <v>217</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3876,19 +3833,19 @@
         <v>92</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>217</v>
+      </c>
+      <c r="L18" t="s" s="2">
+        <v>218</v>
+      </c>
+      <c r="M18" t="s" s="2">
         <v>219</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="N18" t="s" s="2">
         <v>220</v>
       </c>
-      <c r="M18" t="s" s="2">
+      <c r="O18" t="s" s="2">
         <v>221</v>
-      </c>
-      <c r="N18" t="s" s="2">
-        <v>222</v>
-      </c>
-      <c r="O18" t="s" s="2">
-        <v>223</v>
       </c>
       <c r="P18" t="s" s="2">
         <v>20</v>
@@ -3937,7 +3894,7 @@
         <v>20</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>80</v>
@@ -3952,19 +3909,19 @@
         <v>103</v>
       </c>
       <c r="AK18" t="s" s="2">
+        <v>222</v>
+      </c>
+      <c r="AL18" t="s" s="2">
+        <v>20</v>
+      </c>
+      <c r="AM18" t="s" s="2">
+        <v>223</v>
+      </c>
+      <c r="AN18" t="s" s="2">
         <v>224</v>
       </c>
-      <c r="AL18" t="s" s="2">
-        <v>20</v>
-      </c>
-      <c r="AM18" t="s" s="2">
+      <c r="AO18" t="s" s="2">
         <v>225</v>
-      </c>
-      <c r="AN18" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="AO18" t="s" s="2">
-        <v>227</v>
       </c>
       <c r="AP18" t="s" s="2">
         <v>20</v>
@@ -3972,10 +3929,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3983,10 +3940,10 @@
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>92</v>
@@ -3998,16 +3955,16 @@
         <v>92</v>
       </c>
       <c r="K19" t="s" s="2">
+        <v>227</v>
+      </c>
+      <c r="L19" t="s" s="2">
+        <v>228</v>
+      </c>
+      <c r="M19" t="s" s="2">
         <v>229</v>
       </c>
-      <c r="L19" t="s" s="2">
+      <c r="N19" t="s" s="2">
         <v>230</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>231</v>
-      </c>
-      <c r="N19" t="s" s="2">
-        <v>232</v>
       </c>
       <c r="O19" s="2"/>
       <c r="P19" t="s" s="2">
@@ -4057,7 +4014,7 @@
         <v>20</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>80</v>
@@ -4078,13 +4035,13 @@
         <v>20</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="AO19" t="s" s="2">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="AP19" t="s" s="2">
         <v>20</v>
@@ -4092,14 +4049,14 @@
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
@@ -4118,19 +4075,19 @@
         <v>92</v>
       </c>
       <c r="K20" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="L20" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="M20" t="s" s="2">
+        <v>176</v>
+      </c>
+      <c r="N20" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="O20" t="s" s="2">
         <v>236</v>
-      </c>
-      <c r="L20" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>238</v>
-      </c>
-      <c r="N20" t="s" s="2">
-        <v>239</v>
-      </c>
-      <c r="O20" t="s" s="2">
-        <v>240</v>
       </c>
       <c r="P20" t="s" s="2">
         <v>20</v>
@@ -4179,7 +4136,7 @@
         <v>20</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>80</v>
@@ -4194,19 +4151,19 @@
         <v>103</v>
       </c>
       <c r="AK20" t="s" s="2">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="AL20" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM20" t="s" s="2">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="AN20" t="s" s="2">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="AO20" t="s" s="2">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="AP20" t="s" s="2">
         <v>20</v>
@@ -4214,18 +4171,18 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G21" t="s" s="2">
         <v>91</v>
@@ -4240,19 +4197,19 @@
         <v>92</v>
       </c>
       <c r="K21" t="s" s="2">
+        <v>243</v>
+      </c>
+      <c r="L21" t="s" s="2">
+        <v>244</v>
+      </c>
+      <c r="M21" t="s" s="2">
+        <v>245</v>
+      </c>
+      <c r="N21" t="s" s="2">
+        <v>246</v>
+      </c>
+      <c r="O21" t="s" s="2">
         <v>247</v>
-      </c>
-      <c r="L21" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="N21" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="O21" t="s" s="2">
-        <v>251</v>
       </c>
       <c r="P21" t="s" s="2">
         <v>20</v>
@@ -4301,7 +4258,7 @@
         <v>20</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>80</v>
@@ -4316,19 +4273,19 @@
         <v>103</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM21" t="s" s="2">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="AN21" t="s" s="2">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="AO21" t="s" s="2">
-        <v>255</v>
+        <v>251</v>
       </c>
       <c r="AP21" t="s" s="2">
         <v>20</v>
@@ -4336,10 +4293,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4362,16 +4319,16 @@
         <v>92</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>258</v>
+        <v>176</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>259</v>
+        <v>176</v>
       </c>
       <c r="N22" t="s" s="2">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="O22" s="2"/>
       <c r="P22" t="s" s="2">
@@ -4421,7 +4378,7 @@
         <v>20</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>80</v>
@@ -4442,13 +4399,13 @@
         <v>20</v>
       </c>
       <c r="AM22" t="s" s="2">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="AN22" t="s" s="2">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="AO22" t="s" s="2">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="AP22" t="s" s="2">
         <v>20</v>
@@ -4456,10 +4413,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -4482,17 +4439,17 @@
         <v>92</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>266</v>
+        <v>176</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>267</v>
+        <v>176</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="P23" t="s" s="2">
         <v>20</v>
@@ -4541,7 +4498,7 @@
         <v>20</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>80</v>
@@ -4556,19 +4513,19 @@
         <v>103</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AM23" t="s" s="2">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="AN23" t="s" s="2">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="AO23" t="s" s="2">
-        <v>272</v>
+        <v>264</v>
       </c>
       <c r="AP23" t="s" s="2">
         <v>20</v>
@@ -4576,10 +4533,10 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4587,7 +4544,7 @@
       </c>
       <c r="E24" s="2"/>
       <c r="F24" t="s" s="2">
-        <v>80</v>
+        <v>91</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>91</v>
@@ -4602,19 +4559,19 @@
         <v>92</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>274</v>
+        <v>266</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="N24" t="s" s="2">
-        <v>276</v>
+        <v>268</v>
       </c>
       <c r="O24" t="s" s="2">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="P24" t="s" s="2">
         <v>20</v>
@@ -4639,11 +4596,11 @@
         <v>20</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="Y24" s="2"/>
       <c r="Z24" t="s" s="2">
-        <v>278</v>
+        <v>270</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>20</v>
@@ -4661,7 +4618,7 @@
         <v>20</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>273</v>
+        <v>265</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>80</v>
@@ -4670,7 +4627,7 @@
         <v>91</v>
       </c>
       <c r="AI24" t="s" s="2">
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="AJ24" t="s" s="2">
         <v>103</v>
@@ -4679,27 +4636,27 @@
         <v>20</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="AM24" t="s" s="2">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="AN24" t="s" s="2">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="AO24" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AP24" t="s" s="2">
-        <v>283</v>
+        <v>275</v>
       </c>
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4722,19 +4679,19 @@
         <v>20</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>285</v>
+        <v>277</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="N25" t="s" s="2">
-        <v>287</v>
+        <v>279</v>
       </c>
       <c r="O25" t="s" s="2">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="P25" t="s" s="2">
         <v>20</v>
@@ -4759,13 +4716,13 @@
         <v>20</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="Z25" t="s" s="2">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="AA25" t="s" s="2">
         <v>20</v>
@@ -4783,7 +4740,7 @@
         <v>20</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>284</v>
+        <v>276</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>80</v>
@@ -4792,7 +4749,7 @@
         <v>91</v>
       </c>
       <c r="AI25" t="s" s="2">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="AJ25" t="s" s="2">
         <v>103</v>
@@ -4807,7 +4764,7 @@
         <v>134</v>
       </c>
       <c r="AN25" t="s" s="2">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="AO25" t="s" s="2">
         <v>20</v>
@@ -4818,14 +4775,14 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" t="s" s="2">
@@ -4844,19 +4801,19 @@
         <v>20</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>296</v>
+        <v>176</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>297</v>
+        <v>176</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="O26" t="s" s="2">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="P26" t="s" s="2">
         <v>20</v>
@@ -4881,13 +4838,13 @@
         <v>20</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="Z26" t="s" s="2">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>20</v>
@@ -4905,7 +4862,7 @@
         <v>20</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>294</v>
+        <v>286</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>80</v>
@@ -4923,27 +4880,27 @@
         <v>20</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="AO26" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AP26" t="s" s="2">
-        <v>305</v>
+        <v>295</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4966,19 +4923,19 @@
         <v>20</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="N27" t="s" s="2">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="O27" t="s" s="2">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="P27" t="s" s="2">
         <v>20</v>
@@ -5027,7 +4984,7 @@
         <v>20</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>80</v>
@@ -5048,10 +5005,10 @@
         <v>20</v>
       </c>
       <c r="AM27" t="s" s="2">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="AO27" t="s" s="2">
         <v>20</v>
@@ -5062,10 +5019,10 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5088,16 +5045,16 @@
         <v>20</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>315</v>
+        <v>176</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>316</v>
+        <v>176</v>
       </c>
       <c r="N28" t="s" s="2">
-        <v>317</v>
+        <v>305</v>
       </c>
       <c r="O28" s="2"/>
       <c r="P28" t="s" s="2">
@@ -5123,13 +5080,13 @@
         <v>20</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>318</v>
+        <v>306</v>
       </c>
       <c r="Y28" t="s" s="2">
-        <v>319</v>
+        <v>307</v>
       </c>
       <c r="Z28" t="s" s="2">
-        <v>320</v>
+        <v>308</v>
       </c>
       <c r="AA28" t="s" s="2">
         <v>20</v>
@@ -5147,7 +5104,7 @@
         <v>20</v>
       </c>
       <c r="AF28" t="s" s="2">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>80</v>
@@ -5165,27 +5122,27 @@
         <v>20</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>321</v>
+        <v>309</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>322</v>
+        <v>310</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>323</v>
+        <v>311</v>
       </c>
       <c r="AO28" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AP28" t="s" s="2">
-        <v>324</v>
+        <v>312</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>325</v>
+        <v>313</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>325</v>
+        <v>313</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
@@ -5208,19 +5165,19 @@
         <v>20</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>326</v>
+        <v>314</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>327</v>
+        <v>315</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="O29" t="s" s="2">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="P29" t="s" s="2">
         <v>20</v>
@@ -5245,11 +5202,11 @@
         <v>20</v>
       </c>
       <c r="X29" t="s" s="2">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="Y29" s="2"/>
       <c r="Z29" t="s" s="2">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="AA29" t="s" s="2">
         <v>20</v>
@@ -5267,7 +5224,7 @@
         <v>20</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>325</v>
+        <v>313</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>80</v>
@@ -5288,10 +5245,10 @@
         <v>20</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="AO29" t="s" s="2">
         <v>20</v>
@@ -5302,10 +5259,10 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>333</v>
+        <v>321</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>333</v>
+        <v>321</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5328,16 +5285,16 @@
         <v>20</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>335</v>
+        <v>176</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>336</v>
+        <v>176</v>
       </c>
       <c r="N30" t="s" s="2">
-        <v>337</v>
+        <v>323</v>
       </c>
       <c r="O30" s="2"/>
       <c r="P30" t="s" s="2">
@@ -5387,7 +5344,7 @@
         <v>20</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>333</v>
+        <v>321</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>80</v>
@@ -5405,27 +5362,27 @@
         <v>20</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>338</v>
+        <v>324</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>339</v>
+        <v>325</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>340</v>
+        <v>326</v>
       </c>
       <c r="AO30" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AP30" t="s" s="2">
-        <v>341</v>
+        <v>327</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
@@ -5448,16 +5405,16 @@
         <v>20</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>343</v>
+        <v>329</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>344</v>
+        <v>176</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>344</v>
+        <v>176</v>
       </c>
       <c r="N31" t="s" s="2">
-        <v>345</v>
+        <v>330</v>
       </c>
       <c r="O31" s="2"/>
       <c r="P31" t="s" s="2">
@@ -5507,7 +5464,7 @@
         <v>20</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>342</v>
+        <v>328</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>80</v>
@@ -5525,27 +5482,27 @@
         <v>20</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>346</v>
+        <v>331</v>
       </c>
       <c r="AM31" t="s" s="2">
-        <v>347</v>
+        <v>332</v>
       </c>
       <c r="AN31" t="s" s="2">
-        <v>348</v>
+        <v>333</v>
       </c>
       <c r="AO31" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AP31" t="s" s="2">
-        <v>349</v>
+        <v>334</v>
       </c>
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>350</v>
+        <v>335</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>350</v>
+        <v>335</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5568,19 +5525,19 @@
         <v>20</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>351</v>
+        <v>336</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>344</v>
+        <v>176</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>344</v>
+        <v>176</v>
       </c>
       <c r="N32" t="s" s="2">
-        <v>352</v>
+        <v>337</v>
       </c>
       <c r="O32" t="s" s="2">
-        <v>353</v>
+        <v>338</v>
       </c>
       <c r="P32" t="s" s="2">
         <v>20</v>
@@ -5629,7 +5586,7 @@
         <v>20</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>350</v>
+        <v>335</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>80</v>
@@ -5641,7 +5598,7 @@
         <v>20</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>354</v>
+        <v>339</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>20</v>
@@ -5650,10 +5607,10 @@
         <v>20</v>
       </c>
       <c r="AM32" t="s" s="2">
-        <v>355</v>
+        <v>340</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>356</v>
+        <v>341</v>
       </c>
       <c r="AO32" t="s" s="2">
         <v>20</v>
@@ -5664,10 +5621,10 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>357</v>
+        <v>342</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>357</v>
+        <v>342</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5690,13 +5647,13 @@
         <v>20</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>358</v>
+        <v>343</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>359</v>
+        <v>344</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>360</v>
+        <v>345</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -5747,7 +5704,7 @@
         <v>20</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>361</v>
+        <v>346</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>80</v>
@@ -5771,7 +5728,7 @@
         <v>20</v>
       </c>
       <c r="AN33" t="s" s="2">
-        <v>362</v>
+        <v>347</v>
       </c>
       <c r="AO33" t="s" s="2">
         <v>20</v>
@@ -5782,10 +5739,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>363</v>
+        <v>348</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>363</v>
+        <v>348</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5814,7 +5771,7 @@
         <v>138</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>364</v>
+        <v>349</v>
       </c>
       <c r="N34" t="s" s="2">
         <v>140</v>
@@ -5867,7 +5824,7 @@
         <v>20</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>365</v>
+        <v>350</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>80</v>
@@ -5891,7 +5848,7 @@
         <v>20</v>
       </c>
       <c r="AN34" t="s" s="2">
-        <v>362</v>
+        <v>347</v>
       </c>
       <c r="AO34" t="s" s="2">
         <v>20</v>
@@ -5902,14 +5859,14 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>366</v>
+        <v>351</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>366</v>
+        <v>351</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>367</v>
+        <v>352</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
@@ -5931,10 +5888,10 @@
         <v>137</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>368</v>
+        <v>353</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>369</v>
+        <v>354</v>
       </c>
       <c r="N35" t="s" s="2">
         <v>140</v>
@@ -5989,7 +5946,7 @@
         <v>20</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>370</v>
+        <v>355</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>80</v>
@@ -6024,10 +5981,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>371</v>
+        <v>356</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>371</v>
+        <v>356</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -6050,13 +6007,13 @@
         <v>20</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>372</v>
+        <v>357</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>373</v>
+        <v>358</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>374</v>
+        <v>359</v>
       </c>
       <c r="N36" s="2"/>
       <c r="O36" s="2"/>
@@ -6107,7 +6064,7 @@
         <v>20</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>371</v>
+        <v>356</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>80</v>
@@ -6116,7 +6073,7 @@
         <v>91</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>375</v>
+        <v>360</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>103</v>
@@ -6128,10 +6085,10 @@
         <v>20</v>
       </c>
       <c r="AM36" t="s" s="2">
-        <v>376</v>
+        <v>361</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>377</v>
+        <v>362</v>
       </c>
       <c r="AO36" t="s" s="2">
         <v>20</v>
@@ -6142,10 +6099,10 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>378</v>
+        <v>363</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>378</v>
+        <v>363</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6168,13 +6125,13 @@
         <v>20</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>372</v>
+        <v>357</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>379</v>
+        <v>364</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>380</v>
+        <v>365</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -6225,7 +6182,7 @@
         <v>20</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>378</v>
+        <v>363</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>80</v>
@@ -6234,7 +6191,7 @@
         <v>91</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>375</v>
+        <v>360</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>103</v>
@@ -6246,10 +6203,10 @@
         <v>20</v>
       </c>
       <c r="AM37" t="s" s="2">
-        <v>376</v>
+        <v>361</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>381</v>
+        <v>366</v>
       </c>
       <c r="AO37" t="s" s="2">
         <v>20</v>
@@ -6260,10 +6217,10 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>382</v>
+        <v>367</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>382</v>
+        <v>367</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6286,19 +6243,19 @@
         <v>20</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>383</v>
+        <v>368</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>384</v>
+        <v>369</v>
       </c>
       <c r="N38" t="s" s="2">
-        <v>385</v>
+        <v>370</v>
       </c>
       <c r="O38" t="s" s="2">
-        <v>386</v>
+        <v>371</v>
       </c>
       <c r="P38" t="s" s="2">
         <v>20</v>
@@ -6326,10 +6283,10 @@
         <v>115</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>387</v>
+        <v>372</v>
       </c>
       <c r="Z38" t="s" s="2">
-        <v>388</v>
+        <v>373</v>
       </c>
       <c r="AA38" t="s" s="2">
         <v>20</v>
@@ -6347,7 +6304,7 @@
         <v>20</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>382</v>
+        <v>367</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>80</v>
@@ -6365,13 +6322,13 @@
         <v>20</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>389</v>
+        <v>374</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>390</v>
+        <v>375</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="AO38" t="s" s="2">
         <v>20</v>
@@ -6382,10 +6339,10 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>391</v>
+        <v>376</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>391</v>
+        <v>376</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" t="s" s="2">
@@ -6408,19 +6365,19 @@
         <v>20</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>392</v>
+        <v>377</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>393</v>
+        <v>378</v>
       </c>
       <c r="N39" t="s" s="2">
-        <v>394</v>
+        <v>379</v>
       </c>
       <c r="O39" t="s" s="2">
-        <v>395</v>
+        <v>380</v>
       </c>
       <c r="P39" t="s" s="2">
         <v>20</v>
@@ -6445,13 +6402,13 @@
         <v>20</v>
       </c>
       <c r="X39" t="s" s="2">
-        <v>318</v>
+        <v>306</v>
       </c>
       <c r="Y39" t="s" s="2">
-        <v>396</v>
+        <v>381</v>
       </c>
       <c r="Z39" t="s" s="2">
-        <v>397</v>
+        <v>382</v>
       </c>
       <c r="AA39" t="s" s="2">
         <v>20</v>
@@ -6469,7 +6426,7 @@
         <v>20</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>391</v>
+        <v>376</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>80</v>
@@ -6487,13 +6444,13 @@
         <v>20</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>389</v>
+        <v>374</v>
       </c>
       <c r="AM39" t="s" s="2">
-        <v>390</v>
+        <v>375</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="AO39" t="s" s="2">
         <v>20</v>
@@ -6504,10 +6461,10 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>398</v>
+        <v>383</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>398</v>
+        <v>383</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6530,17 +6487,17 @@
         <v>20</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>399</v>
+        <v>384</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>400</v>
+        <v>385</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>401</v>
+        <v>386</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
-        <v>402</v>
+        <v>387</v>
       </c>
       <c r="P40" t="s" s="2">
         <v>20</v>
@@ -6589,7 +6546,7 @@
         <v>20</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>398</v>
+        <v>383</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>80</v>
@@ -6613,7 +6570,7 @@
         <v>20</v>
       </c>
       <c r="AN40" t="s" s="2">
-        <v>403</v>
+        <v>388</v>
       </c>
       <c r="AO40" t="s" s="2">
         <v>20</v>
@@ -6624,10 +6581,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>404</v>
+        <v>389</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>404</v>
+        <v>389</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6650,13 +6607,13 @@
         <v>20</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>358</v>
+        <v>343</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>405</v>
+        <v>390</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>406</v>
+        <v>391</v>
       </c>
       <c r="N41" s="2"/>
       <c r="O41" s="2"/>
@@ -6707,7 +6664,7 @@
         <v>20</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>404</v>
+        <v>389</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>80</v>
@@ -6728,10 +6685,10 @@
         <v>20</v>
       </c>
       <c r="AM41" t="s" s="2">
-        <v>376</v>
+        <v>361</v>
       </c>
       <c r="AN41" t="s" s="2">
-        <v>407</v>
+        <v>392</v>
       </c>
       <c r="AO41" t="s" s="2">
         <v>20</v>
@@ -6742,10 +6699,10 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>408</v>
+        <v>393</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>408</v>
+        <v>393</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
@@ -6768,16 +6725,16 @@
         <v>92</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>409</v>
+        <v>394</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>344</v>
+        <v>176</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>344</v>
+        <v>176</v>
       </c>
       <c r="N42" t="s" s="2">
-        <v>410</v>
+        <v>395</v>
       </c>
       <c r="O42" s="2"/>
       <c r="P42" t="s" s="2">
@@ -6827,7 +6784,7 @@
         <v>20</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>408</v>
+        <v>393</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>80</v>
@@ -6848,10 +6805,10 @@
         <v>20</v>
       </c>
       <c r="AM42" t="s" s="2">
-        <v>411</v>
+        <v>396</v>
       </c>
       <c r="AN42" t="s" s="2">
-        <v>412</v>
+        <v>397</v>
       </c>
       <c r="AO42" t="s" s="2">
         <v>20</v>
@@ -6862,10 +6819,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>413</v>
+        <v>398</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>413</v>
+        <v>398</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6888,16 +6845,16 @@
         <v>92</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>414</v>
+        <v>399</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>415</v>
+        <v>400</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>416</v>
+        <v>401</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>417</v>
+        <v>402</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -6947,7 +6904,7 @@
         <v>20</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>413</v>
+        <v>398</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>80</v>
@@ -6968,10 +6925,10 @@
         <v>20</v>
       </c>
       <c r="AM43" t="s" s="2">
-        <v>411</v>
+        <v>396</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>418</v>
+        <v>403</v>
       </c>
       <c r="AO43" t="s" s="2">
         <v>20</v>
@@ -6982,10 +6939,10 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>419</v>
+        <v>404</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>419</v>
+        <v>404</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -7008,19 +6965,19 @@
         <v>92</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>351</v>
+        <v>336</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>420</v>
+        <v>176</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>421</v>
+        <v>176</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>422</v>
+        <v>405</v>
       </c>
       <c r="O44" t="s" s="2">
-        <v>423</v>
+        <v>406</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>20</v>
@@ -7069,7 +7026,7 @@
         <v>20</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>419</v>
+        <v>404</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>80</v>
@@ -7090,10 +7047,10 @@
         <v>20</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>424</v>
+        <v>407</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>425</v>
+        <v>408</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>20</v>
@@ -7104,10 +7061,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>426</v>
+        <v>409</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>426</v>
+        <v>409</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7130,13 +7087,13 @@
         <v>20</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>358</v>
+        <v>343</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>359</v>
+        <v>344</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>360</v>
+        <v>345</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -7187,7 +7144,7 @@
         <v>20</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>361</v>
+        <v>346</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>80</v>
@@ -7211,7 +7168,7 @@
         <v>20</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>362</v>
+        <v>347</v>
       </c>
       <c r="AO45" t="s" s="2">
         <v>20</v>
@@ -7222,10 +7179,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>427</v>
+        <v>410</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>427</v>
+        <v>410</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7254,7 +7211,7 @@
         <v>138</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>364</v>
+        <v>349</v>
       </c>
       <c r="N46" t="s" s="2">
         <v>140</v>
@@ -7307,7 +7264,7 @@
         <v>20</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>365</v>
+        <v>350</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>80</v>
@@ -7331,7 +7288,7 @@
         <v>20</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>362</v>
+        <v>347</v>
       </c>
       <c r="AO46" t="s" s="2">
         <v>20</v>
@@ -7342,14 +7299,14 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>428</v>
+        <v>411</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>428</v>
+        <v>411</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
-        <v>367</v>
+        <v>352</v>
       </c>
       <c r="E47" s="2"/>
       <c r="F47" t="s" s="2">
@@ -7371,10 +7328,10 @@
         <v>137</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>368</v>
+        <v>353</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>369</v>
+        <v>354</v>
       </c>
       <c r="N47" t="s" s="2">
         <v>140</v>
@@ -7429,7 +7386,7 @@
         <v>20</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>370</v>
+        <v>355</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>80</v>
@@ -7464,10 +7421,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>429</v>
+        <v>412</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>429</v>
+        <v>412</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7490,19 +7447,19 @@
         <v>92</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>430</v>
+        <v>413</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>431</v>
+        <v>414</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>432</v>
+        <v>415</v>
       </c>
       <c r="O48" t="s" s="2">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="P48" t="s" s="2">
         <v>20</v>
@@ -7527,13 +7484,13 @@
         <v>20</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>318</v>
+        <v>306</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>433</v>
+        <v>416</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>434</v>
+        <v>417</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>20</v>
@@ -7551,7 +7508,7 @@
         <v>20</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>429</v>
+        <v>412</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>91</v>
@@ -7569,16 +7526,16 @@
         <v>20</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>435</v>
+        <v>418</v>
       </c>
       <c r="AM48" t="s" s="2">
+        <v>212</v>
+      </c>
+      <c r="AN48" t="s" s="2">
+        <v>213</v>
+      </c>
+      <c r="AO48" t="s" s="2">
         <v>214</v>
-      </c>
-      <c r="AN48" t="s" s="2">
-        <v>215</v>
-      </c>
-      <c r="AO48" t="s" s="2">
-        <v>216</v>
       </c>
       <c r="AP48" t="s" s="2">
         <v>20</v>
@@ -7586,10 +7543,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>436</v>
+        <v>419</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>436</v>
+        <v>419</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7612,19 +7569,19 @@
         <v>92</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>437</v>
+        <v>420</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>438</v>
+        <v>421</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>275</v>
+        <v>267</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>439</v>
+        <v>422</v>
       </c>
       <c r="O49" t="s" s="2">
-        <v>277</v>
+        <v>269</v>
       </c>
       <c r="P49" t="s" s="2">
         <v>20</v>
@@ -7673,7 +7630,7 @@
         <v>20</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>436</v>
+        <v>419</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>80</v>
@@ -7691,27 +7648,27 @@
         <v>20</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>440</v>
+        <v>423</v>
       </c>
       <c r="AM49" t="s" s="2">
-        <v>281</v>
+        <v>273</v>
       </c>
       <c r="AN49" t="s" s="2">
-        <v>282</v>
+        <v>274</v>
       </c>
       <c r="AO49" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AP49" t="s" s="2">
-        <v>283</v>
+        <v>275</v>
       </c>
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>441</v>
+        <v>424</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>441</v>
+        <v>424</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7734,19 +7691,19 @@
         <v>20</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>442</v>
+        <v>425</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>443</v>
+        <v>426</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>444</v>
+        <v>427</v>
       </c>
       <c r="O50" t="s" s="2">
-        <v>288</v>
+        <v>280</v>
       </c>
       <c r="P50" t="s" s="2">
         <v>20</v>
@@ -7771,13 +7728,13 @@
         <v>20</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>290</v>
+        <v>282</v>
       </c>
       <c r="Z50" t="s" s="2">
-        <v>291</v>
+        <v>283</v>
       </c>
       <c r="AA50" t="s" s="2">
         <v>20</v>
@@ -7795,7 +7752,7 @@
         <v>20</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>441</v>
+        <v>424</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>80</v>
@@ -7804,7 +7761,7 @@
         <v>91</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>292</v>
+        <v>284</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>103</v>
@@ -7819,7 +7776,7 @@
         <v>134</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>293</v>
+        <v>285</v>
       </c>
       <c r="AO50" t="s" s="2">
         <v>20</v>
@@ -7830,14 +7787,14 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>445</v>
+        <v>428</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>445</v>
+        <v>428</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
-        <v>295</v>
+        <v>287</v>
       </c>
       <c r="E51" s="2"/>
       <c r="F51" t="s" s="2">
@@ -7856,19 +7813,19 @@
         <v>20</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>296</v>
+        <v>429</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>297</v>
+        <v>430</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="O51" t="s" s="2">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="P51" t="s" s="2">
         <v>20</v>
@@ -7893,13 +7850,13 @@
         <v>20</v>
       </c>
       <c r="X51" t="s" s="2">
-        <v>289</v>
+        <v>281</v>
       </c>
       <c r="Y51" t="s" s="2">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="Z51" t="s" s="2">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="AA51" t="s" s="2">
         <v>20</v>
@@ -7917,7 +7874,7 @@
         <v>20</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>445</v>
+        <v>428</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>80</v>
@@ -7935,27 +7892,27 @@
         <v>20</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="AM51" t="s" s="2">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="AO51" t="s" s="2">
         <v>20</v>
       </c>
       <c r="AP51" t="s" s="2">
-        <v>305</v>
+        <v>295</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>446</v>
+        <v>431</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>446</v>
+        <v>431</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7981,16 +7938,16 @@
         <v>82</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>447</v>
+        <v>432</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>448</v>
+        <v>433</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>352</v>
+        <v>337</v>
       </c>
       <c r="O52" t="s" s="2">
-        <v>353</v>
+        <v>338</v>
       </c>
       <c r="P52" t="s" s="2">
         <v>20</v>
@@ -8039,7 +7996,7 @@
         <v>20</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>446</v>
+        <v>431</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>80</v>
@@ -8060,10 +8017,10 @@
         <v>20</v>
       </c>
       <c r="AM52" t="s" s="2">
-        <v>355</v>
+        <v>340</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>356</v>
+        <v>341</v>
       </c>
       <c r="AO52" t="s" s="2">
         <v>20</v>

--- a/StructureDefinition-onconova-tnm-grade-category.xlsx
+++ b/StructureDefinition-onconova-tnm-grade-category.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-22T09:58:04+00:00</t>
+    <t>2025-11-24T08:04:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-tnm-grade-category.xlsx
+++ b/StructureDefinition-onconova-tnm-grade-category.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-24T08:04:46+00:00</t>
+    <t>2025-11-24T08:19:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-tnm-grade-category.xlsx
+++ b/StructureDefinition-onconova-tnm-grade-category.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-24T08:19:06+00:00</t>
+    <t>2025-11-24T08:55:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-tnm-grade-category.xlsx
+++ b/StructureDefinition-onconova-tnm-grade-category.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-24T08:55:00+00:00</t>
+    <t>2025-11-24T09:24:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-tnm-grade-category.xlsx
+++ b/StructureDefinition-onconova-tnm-grade-category.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-24T09:24:28+00:00</t>
+    <t>2025-11-24T11:19:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-tnm-grade-category.xlsx
+++ b/StructureDefinition-onconova-tnm-grade-category.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2032" uniqueCount="434">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2032" uniqueCount="436">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-24T11:19:41+00:00</t>
+    <t>2025-11-25T07:35:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1290,6 +1290,12 @@
   </si>
   <si>
     <t>Observation.component</t>
+  </si>
+  <si>
+    <t>Component results</t>
+  </si>
+  <si>
+    <t>Some observations have multiple component observations.  These component observations are expressed as separate code value pairs that share the same attributes.  Examples include systolic and diastolic component observations for blood pressure measurement and multiple component observations for genetics observations.</t>
   </si>
   <si>
     <t>For a discussion on the ways Observations can be assembled in groups together see [Notes](http://hl7.org/fhir/R4/observation.html#notes) below.</t>
@@ -6968,16 +6974,16 @@
         <v>336</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>176</v>
+        <v>405</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>176</v>
+        <v>406</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="O44" t="s" s="2">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="P44" t="s" s="2">
         <v>20</v>
@@ -7047,10 +7053,10 @@
         <v>20</v>
       </c>
       <c r="AM44" t="s" s="2">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="AO44" t="s" s="2">
         <v>20</v>
@@ -7061,10 +7067,10 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -7179,10 +7185,10 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7299,10 +7305,10 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7421,10 +7427,10 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7450,13 +7456,13 @@
         <v>188</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="N48" t="s" s="2">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="O48" t="s" s="2">
         <v>208</v>
@@ -7487,10 +7493,10 @@
         <v>306</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="Z48" t="s" s="2">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="AA48" t="s" s="2">
         <v>20</v>
@@ -7508,7 +7514,7 @@
         <v>20</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>91</v>
@@ -7526,7 +7532,7 @@
         <v>20</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>212</v>
@@ -7543,10 +7549,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7569,16 +7575,16 @@
         <v>92</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="M49" t="s" s="2">
         <v>267</v>
       </c>
       <c r="N49" t="s" s="2">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="O49" t="s" s="2">
         <v>269</v>
@@ -7630,7 +7636,7 @@
         <v>20</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>80</v>
@@ -7648,7 +7654,7 @@
         <v>20</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>273</v>
@@ -7665,10 +7671,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7694,13 +7700,13 @@
         <v>188</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="O50" t="s" s="2">
         <v>280</v>
@@ -7752,7 +7758,7 @@
         <v>20</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>80</v>
@@ -7787,10 +7793,10 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7816,10 +7822,10 @@
         <v>188</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="N51" t="s" s="2">
         <v>288</v>
@@ -7874,7 +7880,7 @@
         <v>20</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>428</v>
+        <v>430</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>80</v>
@@ -7909,10 +7915,10 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7938,10 +7944,10 @@
         <v>82</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="N52" t="s" s="2">
         <v>337</v>
@@ -7996,7 +8002,7 @@
         <v>20</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>80</v>

--- a/StructureDefinition-onconova-tnm-grade-category.xlsx
+++ b/StructureDefinition-onconova-tnm-grade-category.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-25T07:35:44+00:00</t>
+    <t>2025-11-25T10:34:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -85,7 +85,7 @@
   </si>
   <si>
     <t xml:space="preserve">A profile representing the TNM grade category for a cancer patient. 
-This profile extends the base mCODE [TNMCategory profile](http://hl7.org/fhir/us/mcode/StructureDefinition/mcode-tnm-category) to specify the new TNM category.
+This profile extends the base mCODE [TNMCategory profile](http://hl7.org/fhir/us/mcode/StructureDefinition/mcode-tnm-category) to specify the new TNM category. Onconova does not provide this resource as an independent resource and is expected to be provided as a contained resource in the `TNMStageGroup` profile under `Obseration.contained`.
 **Conformance:**
 Observation resources representing a TNM staging grade category parameter in the scope of Onconova SHALL conform to this profile. Any resource intended to conform to this profile SHOULD populate `meta.profile` accordingly. </t>
   </si>

--- a/StructureDefinition-onconova-tnm-grade-category.xlsx
+++ b/StructureDefinition-onconova-tnm-grade-category.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-25T10:34:25+00:00</t>
+    <t>2025-11-27T10:13:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-tnm-grade-category.xlsx
+++ b/StructureDefinition-onconova-tnm-grade-category.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-27T10:13:46+00:00</t>
+    <t>2025-11-27T13:06:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-tnm-grade-category.xlsx
+++ b/StructureDefinition-onconova-tnm-grade-category.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-27T13:06:44+00:00</t>
+    <t>2025-12-04T06:29:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-tnm-grade-category.xlsx
+++ b/StructureDefinition-onconova-tnm-grade-category.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-04T06:29:30+00:00</t>
+    <t>2025-12-04T06:46:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -279,7 +279,7 @@
   </si>
   <si>
     <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}obs-6:dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}obs-7:If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}o-stg-req-1:The subject element is required and must be provided. {subject.exists() and subject.resolve().is(Patient)}o-stg-req-2:The effectiveDateTime element is required and must be provided. {effectiveDateTime.exists() and effectiveDateTime.hasValue()}o-stg-req-3:The valueCodeableConcept element is required and must be provided. {valueCodeableConcept.exists() and valueCodeableConcept.coding.exists()}</t>
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}obs-6:dataAbsentReason SHALL only be present if Observation.value[x] is not present {dataAbsentReason.empty() or value.empty()}obs-7:If Observation.code is the same as an Observation.component.code then the value element associated with the code SHALL NOT be present {value.empty() or component.code.where(coding.intersect(%resource.code.coding).exists()).empty()}o-stg-req-1:The subject element is required and must be provided. {subject.exists()}o-stg-req-2:The effectiveDateTime element is required and must be provided. {effectiveDateTime.exists() and effectiveDateTime.hasValue()}o-stg-req-3:The valueCodeableConcept element is required and must be provided. {valueCodeableConcept.exists() and valueCodeableConcept.coding.exists()}</t>
   </si>
   <si>
     <t>Event</t>

--- a/StructureDefinition-onconova-tnm-grade-category.xlsx
+++ b/StructureDefinition-onconova-tnm-grade-category.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-04T06:46:00+00:00</t>
+    <t>2025-12-04T07:07:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-tnm-grade-category.xlsx
+++ b/StructureDefinition-onconova-tnm-grade-category.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-04T07:07:35+00:00</t>
+    <t>2025-12-04T10:18:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-tnm-grade-category.xlsx
+++ b/StructureDefinition-onconova-tnm-grade-category.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-04T10:18:27+00:00</t>
+    <t>2025-12-04T10:59:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-tnm-grade-category.xlsx
+++ b/StructureDefinition-onconova-tnm-grade-category.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-04T10:59:28+00:00</t>
+    <t>2026-02-25T14:29:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-onconova-tnm-grade-category.xlsx
+++ b/StructureDefinition-onconova-tnm-grade-category.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-02-25T14:29:35+00:00</t>
+    <t>2026-02-25T15:12:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
